--- a/0.PN/P.N -.xlsx
+++ b/0.PN/P.N -.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7470" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="Telas " sheetId="5" r:id="rId5"/>
     <sheet name="Req.P.A" sheetId="1" r:id="rId6"/>
     <sheet name="Plan1" sheetId="8" r:id="rId7"/>
-    <sheet name="req ras" sheetId="9" r:id="rId8"/>
-    <sheet name="Previsão Custos" sheetId="10" r:id="rId9"/>
-    <sheet name="Fluxos" sheetId="12" r:id="rId10"/>
-    <sheet name="Nivel 5 " sheetId="13" r:id="rId11"/>
+    <sheet name="Previsão Custos" sheetId="10" r:id="rId8"/>
+    <sheet name="Fluxos" sheetId="12" r:id="rId9"/>
+    <sheet name="Nivel 5 " sheetId="13" r:id="rId10"/>
+    <sheet name="Exemplo " sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Req.P.A!$A$1:$I$117</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="318">
   <si>
     <t>Categoria</t>
   </si>
@@ -474,39 +474,6 @@
     <t xml:space="preserve">numero em relação a grupo </t>
   </si>
   <si>
-    <t xml:space="preserve">Caractersiticas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priorodade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colocar etiquetas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazer rastreabilidade entre as colunas - como neste excel </t>
-  </si>
-  <si>
-    <t>Tem comentários por plano de ação (projeto) evita troca de e-mail</t>
-  </si>
-  <si>
-    <t>Ter indicadores de produtidade por pessoa &amp; projeto&amp; tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostra quais ações foram colocadas para vc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">alvo mostrar prioridade das ações  por vencimento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gut e usar indicadores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REUNIÕES DE PROJETOS atas cronologicas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver slides aula ruivo para colocar funções assosciuadas a projetos </t>
-  </si>
-  <si>
     <t xml:space="preserve"> fazer gerenciamento de reuniões com atas e etc </t>
   </si>
   <si>
@@ -516,9 +483,6 @@
     <t>MATRIZ DE PRIORIDADES</t>
   </si>
   <si>
-    <t>ter ferramenta boa para entrada de informações .. (Tipo usuário cria )</t>
-  </si>
-  <si>
     <t>lista de prioridades</t>
   </si>
   <si>
@@ -594,21 +558,6 @@
     <t>sla</t>
   </si>
   <si>
-    <t xml:space="preserve">banco de dados clientes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">banco de dados pessoas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer diagrama de clase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer diagrama de componentes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer diagrama de estados </t>
-  </si>
-  <si>
     <t xml:space="preserve">qualidade fabricação produto </t>
   </si>
   <si>
@@ -726,9 +675,6 @@
     <t>gut</t>
   </si>
   <si>
-    <t xml:space="preserve">Controle de acesso por cargo e liberação estilo google </t>
-  </si>
-  <si>
     <t xml:space="preserve">Como grupo do whats vai add gente o dono </t>
   </si>
   <si>
@@ -864,9 +810,6 @@
     <t>marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">usuario escolha muitos estilos de visao da mesma planilha ver preço dessa função por qtd de planilhas legais </t>
-  </si>
-  <si>
     <t xml:space="preserve">modelo fechamento caixa </t>
   </si>
   <si>
@@ -1012,6 +955,33 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuário abre PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuário abre reunião </t>
+  </si>
+  <si>
+    <t>Usuário abre ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colunas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colunas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rastreabilidade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario escolha muitos estilos de visao ()design da mesma planilha ver preço dessa função por qtd de planilhas legais </t>
+  </si>
+  <si>
+    <t>ver bpmn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle de acesso por cargo e liberação estilo google e escolher cargo para só mudar no data ou até tres dias após a data de insrção </t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1093,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,7 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,12 +1298,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1413,15 +1383,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,21 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1417,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1810,1870 +1787,1917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="45.5703125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" style="34" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="23"/>
+    <col min="8" max="8" width="45.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.28515625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" s="14" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="78"/>
+      <c r="K1" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="K4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="1:19" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+    </row>
+    <row r="6" spans="1:19" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+    </row>
+    <row r="7" spans="1:19" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+    </row>
+    <row r="8" spans="1:19" s="61" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="O9" s="27"/>
+      <c r="Q9" s="33"/>
+      <c r="S9" s="31"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="69"/>
+      <c r="J10" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="O10" s="27"/>
+      <c r="Q10" s="33"/>
+      <c r="S10" s="31"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="69"/>
+      <c r="J11" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="O11" s="27"/>
+      <c r="Q11" s="33"/>
+      <c r="S11" s="31"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="69"/>
+      <c r="J12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="O12" s="27"/>
+      <c r="Q12" s="33"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="69"/>
+      <c r="J13" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="O13" s="27"/>
+      <c r="Q13" s="33"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="69"/>
+      <c r="J14" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="33"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="69"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" s="29"/>
+      <c r="O15" s="27"/>
+      <c r="Q15" s="33"/>
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="69"/>
+      <c r="J16" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="O16" s="27"/>
+      <c r="Q16" s="33"/>
+      <c r="S16" s="31"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="69"/>
+      <c r="J17" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="O17" s="27"/>
+      <c r="Q17" s="33"/>
+      <c r="S17" s="31"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="69"/>
+      <c r="J18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="33"/>
+      <c r="S18" s="31"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="22"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="69"/>
+      <c r="J19" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="O19" s="27"/>
+      <c r="Q19" s="33"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="69"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="M20" s="29"/>
+      <c r="O20" s="27"/>
+      <c r="Q20" s="33"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="69"/>
+      <c r="J21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="O21" s="27"/>
+      <c r="Q21" s="33"/>
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="4:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="69"/>
+      <c r="J22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="O22" s="27"/>
+      <c r="Q22" s="33"/>
+      <c r="S22" s="31"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="69"/>
+      <c r="J23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="O23" s="27"/>
+      <c r="Q23" s="33"/>
+      <c r="S23" s="31"/>
+    </row>
+    <row r="24" spans="4:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="69"/>
+      <c r="J24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="O24" s="27"/>
+      <c r="Q24" s="33"/>
+      <c r="S24" s="31"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="69"/>
+      <c r="J25" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="77"/>
-    </row>
-    <row r="2" spans="1:16" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="54" t="s">
+      <c r="K25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="O25" s="27"/>
+      <c r="Q25" s="33"/>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="69"/>
+      <c r="J26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="O26" s="27"/>
+      <c r="Q26" s="33"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="69"/>
+      <c r="J27" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="O27" s="27"/>
+      <c r="Q27" s="33"/>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="69"/>
+      <c r="J28" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="O28" s="27"/>
+      <c r="Q28" s="33"/>
+      <c r="S28" s="31"/>
+    </row>
+    <row r="29" spans="4:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="69"/>
+      <c r="J29" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="O29" s="27"/>
+      <c r="Q29" s="33"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="4:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="69"/>
+      <c r="J30" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="M30" s="29"/>
+      <c r="O30" s="27"/>
+      <c r="Q30" s="33"/>
+      <c r="S30" s="31"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="69"/>
+      <c r="J31" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="M31" s="29"/>
+      <c r="O31" s="27"/>
+      <c r="Q31" s="33"/>
+      <c r="S31" s="31"/>
+    </row>
+    <row r="32" spans="4:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="69"/>
+      <c r="J32" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="M32" s="29"/>
+      <c r="O32" s="27"/>
+      <c r="Q32" s="33"/>
+      <c r="S32" s="31"/>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="69"/>
+      <c r="J33" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="29"/>
+      <c r="O33" s="27"/>
+      <c r="Q33" s="33"/>
+      <c r="S33" s="31"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="69"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="M34" s="29"/>
+      <c r="O34" s="27"/>
+      <c r="Q34" s="33"/>
+      <c r="S34" s="31"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="69"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="M35" s="29"/>
+      <c r="O35" s="27"/>
+      <c r="Q35" s="33"/>
+      <c r="S35" s="31"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="78" t="s">
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="75"/>
+      <c r="J38" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D39" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="75"/>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="75"/>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D41" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="75"/>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D42" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="75"/>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D43" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="75"/>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="76"/>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="69"/>
+      <c r="J46" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="69"/>
+      <c r="J47" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="69"/>
+      <c r="J48" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="69"/>
+      <c r="J49" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="69"/>
+      <c r="J50" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="69"/>
+      <c r="J51" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="69"/>
+      <c r="J52" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52" s="62"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="69"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="69"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="69"/>
+      <c r="J55" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="69"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="69"/>
+      <c r="J57" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="27" t="s">
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="69"/>
+      <c r="J58" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="70"/>
+      <c r="J59" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
-    </row>
-    <row r="4" spans="1:16" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="27" t="s">
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="69"/>
+      <c r="J61" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="69"/>
+      <c r="J62" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="69"/>
+      <c r="J63" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="69"/>
+    </row>
+    <row r="65" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="70"/>
+    </row>
+    <row r="66" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="27" t="s">
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="69"/>
+      <c r="J67" s="67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="69"/>
+      <c r="J68" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="69"/>
+    </row>
+    <row r="70" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="69"/>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="70"/>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D72" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-    </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54" t="s">
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="J72" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="69"/>
+      <c r="J73" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="69"/>
+      <c r="J74" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="69"/>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="69"/>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="70"/>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D79" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D81" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D82" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="69"/>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="69"/>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="70"/>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="69"/>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="69"/>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="69"/>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="69"/>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="69"/>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="70"/>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="69"/>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="69"/>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="70"/>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D97" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="69"/>
+      <c r="J98" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="69"/>
+      <c r="J99" s="67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="69"/>
+      <c r="J100" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="69"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="69"/>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="70"/>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D104" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D105" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="69"/>
+      <c r="J106" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-    </row>
-    <row r="8" spans="1:16" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="69" t="s">
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="69"/>
+      <c r="J107" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="L9" s="29"/>
-      <c r="N9" s="35"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="71"/>
-      <c r="G10" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="L10" s="29"/>
-      <c r="N10" s="35"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="71"/>
-      <c r="G11" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="L11" s="29"/>
-      <c r="N11" s="35"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="71"/>
-      <c r="G12" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="L12" s="29"/>
-      <c r="N12" s="35"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="71"/>
-      <c r="G13" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="51" t="s">
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="69"/>
+      <c r="J108" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="69"/>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="69"/>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="69"/>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="69"/>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="70"/>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D114" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="L13" s="29"/>
-      <c r="N13" s="35"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="71"/>
-      <c r="G14" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="L14" s="29"/>
-      <c r="N14" s="35"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="71"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="31"/>
-      <c r="L15" s="29"/>
-      <c r="N15" s="35"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="71"/>
-      <c r="G16" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="L16" s="29"/>
-      <c r="N16" s="35"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="71"/>
-      <c r="G17" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="L17" s="29"/>
-      <c r="N17" s="35"/>
-      <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="71"/>
-      <c r="G18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="L18" s="29"/>
-      <c r="N18" s="35"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="71"/>
-      <c r="G19" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="L19" s="29"/>
-      <c r="N19" s="35"/>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="71"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="J20" s="31"/>
-      <c r="L20" s="29"/>
-      <c r="N20" s="35"/>
-      <c r="P20" s="33"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="71"/>
-      <c r="G21" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="L21" s="29"/>
-      <c r="N21" s="35"/>
-      <c r="P21" s="33"/>
-    </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="71"/>
-      <c r="G22" s="27" t="s">
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D115" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D116" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D117" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D118" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D119" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D120" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D121" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J121" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="69"/>
+    </row>
+    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="69"/>
+    </row>
+    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="70"/>
+    </row>
+    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D126" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D127" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D128" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="H129" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D130" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D131" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H132" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J132" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H133" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H134" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H135" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H136" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H137" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H141" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H142" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H143" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H145" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H146" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H147" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H148" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H149" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H152" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H154" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="L22" s="29"/>
-      <c r="N22" s="35"/>
-      <c r="P22" s="33"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="71"/>
-      <c r="G23" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="L23" s="29"/>
-      <c r="N23" s="35"/>
-      <c r="P23" s="33"/>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="71"/>
-      <c r="G24" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="L24" s="29"/>
-      <c r="N24" s="35"/>
-      <c r="P24" s="33"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="71"/>
-      <c r="G25" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="L25" s="29"/>
-      <c r="N25" s="35"/>
-      <c r="P25" s="33"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="71"/>
-      <c r="G26" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="L26" s="29"/>
-      <c r="N26" s="35"/>
-      <c r="P26" s="33"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="71"/>
-      <c r="G27" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="L27" s="29"/>
-      <c r="N27" s="35"/>
-      <c r="P27" s="33"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="71"/>
-      <c r="G28" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="L28" s="29"/>
-      <c r="N28" s="35"/>
-      <c r="P28" s="33"/>
-    </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="71"/>
-      <c r="G29" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="L29" s="29"/>
-      <c r="N29" s="35"/>
-      <c r="P29" s="33"/>
-    </row>
-    <row r="30" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="71"/>
-      <c r="G30" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="J30" s="31"/>
-      <c r="L30" s="29"/>
-      <c r="N30" s="35"/>
-      <c r="P30" s="33"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="71"/>
-      <c r="G31" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="J31" s="31"/>
-      <c r="L31" s="29"/>
-      <c r="N31" s="35"/>
-      <c r="P31" s="33"/>
-    </row>
-    <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="71"/>
-      <c r="G32" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="J32" s="31"/>
-      <c r="L32" s="29"/>
-      <c r="N32" s="35"/>
-      <c r="P32" s="33"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="71"/>
-      <c r="G33" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="L33" s="29"/>
-      <c r="N33" s="35"/>
-      <c r="P33" s="33"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="71"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="J34" s="31"/>
-      <c r="L34" s="29"/>
-      <c r="N34" s="35"/>
-      <c r="P34" s="33"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="71"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="J35" s="31"/>
-      <c r="L35" s="29"/>
-      <c r="N35" s="35"/>
-      <c r="P35" s="33"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="72"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="82"/>
-      <c r="G38" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="82"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="82"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="82"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="82"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="82"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="71"/>
-      <c r="G46" s="26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="71"/>
-      <c r="G47" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="71"/>
-      <c r="G48" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="71"/>
-      <c r="G49" s="26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="71"/>
-      <c r="G50" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="71"/>
-      <c r="G51" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="71"/>
-      <c r="G52" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="H52" s="64"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="71"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="71"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="71"/>
-      <c r="G55" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="71"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="71"/>
-      <c r="G57" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="71"/>
-      <c r="G58" s="84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="72"/>
-      <c r="G59" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="71"/>
-      <c r="G61" s="84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="71"/>
-      <c r="G62" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="71"/>
-      <c r="G63" s="26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="71"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="72"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="71"/>
-      <c r="G67" s="84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="71"/>
-      <c r="G68" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="71"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="71"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="72"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="G72" s="84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="71"/>
-      <c r="G73" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="71"/>
-      <c r="G74" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="71"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="71"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="72"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="71"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="71"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="72"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="71"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="71"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="71"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="71"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="71"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="72"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="71"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="71"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="72"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="71"/>
-      <c r="G98" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="71"/>
-      <c r="G99" s="84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="71"/>
-      <c r="G100" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="71"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="71"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="72"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="71"/>
-      <c r="G106" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="71"/>
-      <c r="G107" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="71"/>
-      <c r="G108" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="71"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="71"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="71"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="71"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="72"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="71"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="71"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="72"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E132" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E133" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E134" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E135" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E136" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E137" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E139" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E140" s="3" t="s">
+      <c r="J154" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E141" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E142" s="3" t="s">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E143" s="3" t="s">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E144" s="3" t="s">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E145" s="3" t="s">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H201" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H202" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E146" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E147" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E148" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E149" s="3" t="s">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="3" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E152" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E153" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E154" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G154" s="26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E9:E36"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="E45:E59"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="E72:E77"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E105:E113"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H105:H113"/>
+    <mergeCell ref="H122:H125"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H97:H103"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H36"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H45:H59"/>
+    <mergeCell ref="H60:H65"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="H86:H92"/>
+    <mergeCell ref="H82:H85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E130" r:id="rId1"/>
+    <hyperlink ref="H130" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3682,76 +3706,114 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3764,8 +3826,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3777,154 +3839,154 @@
     <col min="5" max="5" width="28.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" style="48" customWidth="1"/>
-    <col min="9" max="9" width="39" style="42" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="39" style="40" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="23" customWidth="1"/>
     <col min="11" max="16" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>223</v>
+      <c r="K1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="23">
         <v>0</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>226</v>
+      <c r="H2" s="46" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G3" s="23">
         <v>0</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>225</v>
+      <c r="H3" s="47" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G4" s="23">
         <v>0</v>
       </c>
-      <c r="H4" s="48" t="s">
-        <v>227</v>
+      <c r="H4" s="46" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>228</v>
+      <c r="H5" s="46" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="49"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G9" s="23">
         <v>1</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="46" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G10" s="23">
         <v>4</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="38"/>
+      <c r="I10" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="I12" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3932,349 +3994,349 @@
       <c r="G15" s="23">
         <v>3</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G20" s="23">
         <v>10</v>
       </c>
-      <c r="H20" s="48" t="s">
-        <v>220</v>
+      <c r="H20" s="46" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G22" s="23">
         <v>2</v>
       </c>
-      <c r="H22" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="I22" s="42" t="s">
+      <c r="H22" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="I23" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G24" s="23">
         <v>5</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G28" s="23">
         <v>6</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="42" t="s">
-        <v>174</v>
+      <c r="I29" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G30" s="23">
         <v>7</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="46" t="s">
         <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="37"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G33" s="23">
         <v>8</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="37"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="48" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G36" s="23">
         <v>9</v>
       </c>
-      <c r="H36" s="48" t="s">
-        <v>161</v>
+      <c r="H36" s="46" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>165</v>
+        <v>156</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H42" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H43" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H44" s="48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H45" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H46" s="48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H47" s="48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H48" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="48" t="s">
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="46" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" s="48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" s="48" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H100" s="48" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H101" s="48" t="s">
-        <v>197</v>
+      <c r="H101" s="46" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H102" s="48" t="s">
-        <v>198</v>
+      <c r="H102" s="46" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H103" s="48" t="s">
-        <v>199</v>
+      <c r="H103" s="46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="48" t="s">
-        <v>201</v>
+      <c r="H105" s="46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H106" s="48" t="s">
-        <v>202</v>
+      <c r="H106" s="46" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H107" s="48" t="s">
-        <v>203</v>
+      <c r="H107" s="46" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H108" s="48" t="s">
-        <v>204</v>
+      <c r="H108" s="46" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4367,7 +4429,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4432,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4515,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,58 +4993,58 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5057,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
@@ -7053,7 +7115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7064,22 +7126,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>225</v>
+      <c r="A2" s="43" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -7089,7 +7151,7 @@
       <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7108,7 +7170,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -7148,7 +7210,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -7158,12 +7220,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -7217,7 +7279,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="44" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7226,32 +7288,32 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -7259,57 +7321,57 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -7320,12 +7382,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -7456,22 +7518,22 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -7479,22 +7541,22 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7506,416 +7568,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="98.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -7940,53 +7592,53 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="68"/>
+      <c r="J1" s="65"/>
       <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" t="s">
         <v>272</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>273</v>
-      </c>
-      <c r="M1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -8017,4 +7669,16 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>